--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="424">
   <si>
     <t>Path</t>
   </si>
@@ -778,6 +778,10 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+boolean</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -4397,19 +4401,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4467,7 +4471,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4476,24 +4480,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4519,16 +4523,16 @@
         <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4553,13 +4557,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4577,7 +4581,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4586,7 +4590,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4601,7 +4605,7 @@
         <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4612,11 +4616,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4638,16 +4642,16 @@
         <v>164</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4672,13 +4676,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4696,7 +4700,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4714,24 +4718,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4754,19 +4758,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4815,7 +4819,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4836,10 +4840,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4850,7 +4854,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4876,13 +4880,13 @@
         <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4908,13 +4912,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4932,7 +4936,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4950,24 +4954,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4993,16 +4997,16 @@
         <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5027,13 +5031,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5051,7 +5055,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5072,10 +5076,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5086,7 +5090,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5109,16 +5113,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5168,7 +5172,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5186,24 +5190,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5226,16 +5230,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5285,7 +5289,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5303,24 +5307,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5343,19 +5347,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5404,7 +5408,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5416,7 +5420,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5425,10 +5429,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5439,7 +5443,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5465,10 +5469,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5519,7 +5523,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5543,7 +5547,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5554,7 +5558,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5580,10 +5584,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>120</v>
@@ -5636,7 +5640,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5660,7 +5664,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5671,11 +5675,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5697,10 +5701,10 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>120</v>
@@ -5755,7 +5759,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5790,7 +5794,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5813,13 +5817,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5870,7 +5874,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5879,7 +5883,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5891,10 +5895,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5905,7 +5909,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5928,13 +5932,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5985,7 +5989,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5994,7 +5998,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -6006,10 +6010,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6020,7 +6024,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6046,16 +6050,16 @@
         <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6083,10 +6087,10 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6104,7 +6108,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6122,13 +6126,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6139,7 +6143,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6165,16 +6169,16 @@
         <v>164</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6199,13 +6203,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6223,7 +6227,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6241,13 +6245,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6258,7 +6262,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6281,17 +6285,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6340,7 +6344,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6364,7 +6368,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6375,7 +6379,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6401,10 +6405,10 @@
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6455,7 +6459,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6476,10 +6480,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6490,7 +6494,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6513,16 +6517,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6572,7 +6576,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6593,10 +6597,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6607,7 +6611,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6630,16 +6634,16 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6689,7 +6693,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6710,10 +6714,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6724,7 +6728,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6747,19 +6751,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6808,7 +6812,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6829,10 +6833,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6843,7 +6847,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6869,10 +6873,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6923,7 +6927,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6947,7 +6951,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6958,7 +6962,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6984,10 +6988,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>120</v>
@@ -7040,7 +7044,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7064,7 +7068,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7075,11 +7079,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7101,10 +7105,10 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>120</v>
@@ -7159,7 +7163,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7194,7 +7198,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7220,13 +7224,13 @@
         <v>164</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>178</v>
@@ -7254,13 +7258,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7278,7 +7282,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7296,7 +7300,7 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>183</v>
@@ -7313,7 +7317,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7336,19 +7340,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7397,7 +7401,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7415,24 +7419,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7458,16 +7462,16 @@
         <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7492,13 +7496,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7516,7 +7520,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7525,7 +7529,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7540,7 +7544,7 @@
         <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7551,11 +7555,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7577,16 +7581,16 @@
         <v>164</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7611,13 +7615,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7635,7 +7639,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7653,24 +7657,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7696,16 +7700,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7754,7 +7758,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7775,10 +7779,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -6,16 +6,119 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="457">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/StructureDefinition/cqgc-observation</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>cqgc-observation</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>cqgc observation</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-08-12T13:19:14-04:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Ferlab.bio</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -138,9 +241,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Observation</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1496,9 +1596,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AO53"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1550,6245 +1811,6245 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -881,7 +881,7 @@
   </si>
   <si>
     <t>CodeableConcept
-boolean</t>
+booleanstring</t>
   </si>
   <si>
     <t>Actual result</t>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -465,23 +465,13 @@
     <t>Age range during which the anomaly occurred</t>
   </si>
   <si>
-    <t>Period of life during which the phenotype was noted. The value reverts to an HPO code</t>
+    <t>Period of life during which the clinical sign was noted.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>hpo-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/hpo-category}
-</t>
-  </si>
-  <si>
-    <t>Category of anomaly (HPO code)</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -649,10 +639,10 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>Observations categories</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -963,10 +953,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1439,6 +1426,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1757,7 +1750,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1767,9 +1760,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.70703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="13.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="13.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -1790,7 +1783,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -2983,45 +2976,45 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3078,7 +3071,7 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>139</v>
@@ -3093,7 +3086,7 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3104,11 +3097,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3121,25 +3114,23 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3188,7 +3179,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3200,22 +3191,22 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3223,18 +3214,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3246,17 +3237,17 @@
         <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3305,7 +3296,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3320,19 +3311,19 @@
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>78</v>
@@ -3340,18 +3331,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3363,18 +3354,18 @@
         <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3422,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3437,16 +3428,16 @@
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3457,41 +3448,43 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3515,13 +3508,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3539,13 +3532,13 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
@@ -3554,19 +3547,19 @@
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3574,7 +3567,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3585,31 +3578,31 @@
         <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3634,13 +3627,13 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -3658,13 +3651,13 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
@@ -3673,19 +3666,19 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3693,18 +3686,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3713,22 +3706,22 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -3753,37 +3746,37 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
@@ -3792,35 +3785,35 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -3835,19 +3828,19 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -3872,13 +3865,13 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>78</v>
@@ -3896,10 +3889,10 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3911,27 +3904,27 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3942,7 +3935,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3954,20 +3947,18 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4015,13 +4006,13 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
@@ -4030,19 +4021,19 @@
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4050,18 +4041,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4073,18 +4064,20 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4132,13 +4125,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4147,19 +4140,19 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4167,18 +4160,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4190,19 +4183,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -4251,7 +4244,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4266,19 +4259,19 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4286,18 +4279,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4309,20 +4302,18 @@
         <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4370,7 +4361,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4385,19 +4376,19 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4405,7 +4396,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4416,7 +4407,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4428,18 +4419,18 @@
         <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4487,13 +4478,13 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -4502,19 +4493,19 @@
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4522,7 +4513,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4533,7 +4524,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4545,17 +4536,19 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4604,42 +4597,42 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4659,22 +4652,22 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4699,13 +4692,13 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>78</v>
@@ -4723,7 +4716,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4732,7 +4725,7 @@
         <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>100</v>
@@ -4741,35 +4734,35 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4781,19 +4774,19 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4818,40 +4811,40 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>100</v>
@@ -4860,28 +4853,28 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4900,19 +4893,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4937,13 +4930,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4961,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4979,24 +4972,24 @@
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5007,7 +5000,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5019,20 +5012,18 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5056,13 +5047,13 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5080,13 +5071,13 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -5098,24 +5089,24 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5126,7 +5117,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5138,18 +5129,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5173,13 +5166,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5197,7 +5190,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5215,24 +5208,24 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5243,7 +5236,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5255,20 +5248,18 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5292,31 +5283,31 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5334,24 +5325,24 @@
         <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5362,7 +5353,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5374,16 +5365,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5433,7 +5424,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5451,24 +5442,24 @@
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5479,7 +5470,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5491,18 +5482,20 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5550,42 +5543,42 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5596,7 +5589,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5608,20 +5601,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5669,19 +5658,19 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>360</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -5690,10 +5679,10 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5704,18 +5693,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -5727,15 +5716,17 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5784,19 +5775,19 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5808,7 +5799,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5823,7 +5814,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5836,24 +5827,26 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5901,7 +5894,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5925,7 +5918,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5936,43 +5929,39 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6020,19 +6009,19 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6041,10 +6030,10 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6055,7 +6044,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6078,13 +6067,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6135,7 +6124,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6144,7 +6133,7 @@
         <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
@@ -6156,7 +6145,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>383</v>
@@ -6193,7 +6182,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>378</v>
+        <v>194</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>385</v>
@@ -6201,8 +6190,12 @@
       <c r="L38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6226,13 +6219,13 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6259,7 +6252,7 @@
         <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
@@ -6268,13 +6261,13 @@
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6285,7 +6278,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6296,7 +6289,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6308,19 +6301,19 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6345,37 +6338,37 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>112</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -6387,13 +6380,13 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6404,7 +6397,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6415,7 +6408,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6427,19 +6420,17 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6464,13 +6455,13 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>78</v>
@@ -6488,13 +6479,13 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6506,13 +6497,13 @@
         <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6523,7 +6514,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6546,18 +6537,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>405</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6605,7 +6594,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6626,7 +6615,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>409</v>
@@ -6651,7 +6640,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6660,18 +6649,20 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -6726,7 +6717,7 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -6741,10 +6732,10 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6755,7 +6746,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6766,7 +6757,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6778,16 +6769,16 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6837,7 +6828,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6858,10 +6849,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6872,7 +6863,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6883,7 +6874,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6895,18 +6886,20 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6954,7 +6947,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6975,10 +6968,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6989,7 +6982,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7000,7 +6993,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7009,23 +7002,19 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7073,19 +7062,19 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7094,10 +7083,10 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7108,18 +7097,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7131,15 +7120,17 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7188,19 +7179,19 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7212,7 +7203,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7223,11 +7214,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7240,24 +7231,26 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7305,7 +7298,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7329,7 +7322,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7340,42 +7333,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7400,13 +7393,13 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
@@ -7424,34 +7417,34 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7459,7 +7452,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7467,7 +7460,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>88</v>
@@ -7482,19 +7475,19 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>197</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>439</v>
+        <v>275</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7519,13 +7512,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7543,10 +7536,10 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7561,24 +7554,24 @@
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7598,22 +7591,22 @@
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>445</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>446</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7638,13 +7631,13 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7655,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7671,7 +7664,7 @@
         <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
@@ -7680,19 +7673,19 @@
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7701,14 +7694,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7720,19 +7713,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>450</v>
+        <v>295</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>451</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>452</v>
+        <v>297</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7757,13 +7750,13 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>293</v>
+        <v>451</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
@@ -7787,10 +7780,10 @@
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>100</v>
@@ -7799,28 +7792,28 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7839,19 +7832,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>298</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>299</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7876,13 +7869,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7900,7 +7893,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7918,142 +7911,23 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8063,7 +7937,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -953,7 +953,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1429,9 +1429,6 @@
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1783,7 +1780,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.3046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.96875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -7756,7 +7753,7 @@
         <v>450</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>451</v>
+        <v>299</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
@@ -7809,7 +7806,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7835,10 +7832,10 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>354</v>
@@ -7893,7 +7890,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -953,9 +953,6 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
     <t>&lt; 260245000 |Findings values|</t>
   </si>
   <si>
@@ -1429,6 +1426,9 @@
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -4814,7 +4814,7 @@
         <v>199</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -4850,24 +4850,24 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4890,19 +4890,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4951,7 +4951,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4972,10 +4972,10 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5012,13 +5012,13 @@
         <v>194</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5044,14 +5044,14 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5086,24 +5086,24 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5129,16 +5129,16 @@
         <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5163,14 +5163,14 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5208,10 +5208,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5245,16 +5245,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5304,7 +5304,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5322,24 +5322,24 @@
         <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5362,16 +5362,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5421,7 +5421,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5439,24 +5439,24 @@
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5479,19 +5479,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5540,7 +5540,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5552,19 +5552,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5601,10 +5601,10 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5655,7 +5655,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5679,7 +5679,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5716,10 +5716,10 @@
         <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>150</v>
@@ -5772,7 +5772,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5796,7 +5796,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5807,11 +5807,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5833,10 +5833,10 @@
         <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>150</v>
@@ -5891,7 +5891,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5949,13 +5949,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6006,7 +6006,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6015,7 +6015,7 @@
         <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>100</v>
@@ -6027,10 +6027,10 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6064,13 +6064,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6121,7 +6121,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6130,7 +6130,7 @@
         <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
@@ -6142,10 +6142,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6182,16 +6182,16 @@
         <v>194</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6219,11 +6219,11 @@
         <v>112</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6258,13 +6258,13 @@
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6301,16 +6301,16 @@
         <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6335,14 +6335,14 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6377,13 +6377,13 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6417,17 +6417,17 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6476,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6500,7 +6500,7 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6537,10 +6537,10 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6591,7 +6591,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6612,10 +6612,10 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6649,16 +6649,16 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6708,7 +6708,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6729,10 +6729,10 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6766,16 +6766,16 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6825,7 +6825,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6846,10 +6846,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6883,19 +6883,19 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6944,7 +6944,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6965,10 +6965,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7005,10 +7005,10 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7059,7 +7059,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7083,7 +7083,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7120,10 +7120,10 @@
         <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>150</v>
@@ -7176,7 +7176,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7200,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7211,11 +7211,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7237,10 +7237,10 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>150</v>
@@ -7295,7 +7295,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7356,13 +7356,13 @@
         <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>208</v>
@@ -7390,14 +7390,14 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -7432,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>213</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7472,16 +7472,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>277</v>
@@ -7533,7 +7533,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7551,7 +7551,7 @@
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>280</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7594,13 +7594,13 @@
         <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>287</v>
@@ -7652,7 +7652,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7750,11 +7750,11 @@
         <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7789,19 +7789,19 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7838,10 +7838,10 @@
         <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7911,10 +7911,10 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -953,6 +953,12 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
     <t>&lt; 260245000 |Findings values|</t>
   </si>
   <si>
@@ -1423,12 +1429,6 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -4808,13 +4808,13 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -4850,24 +4850,24 @@
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4890,19 +4890,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4951,7 +4951,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4972,10 +4972,10 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5012,13 +5012,13 @@
         <v>194</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5044,13 +5044,13 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>78</v>
@@ -5068,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5086,24 +5086,24 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5129,16 +5129,16 @@
         <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5163,13 +5163,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5187,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5208,10 +5208,10 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5245,16 +5245,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5304,7 +5304,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5322,24 +5322,24 @@
         <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5362,16 +5362,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5421,7 +5421,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5439,24 +5439,24 @@
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5479,19 +5479,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5540,7 +5540,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5552,7 +5552,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5561,10 +5561,10 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5601,10 +5601,10 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5655,7 +5655,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5679,7 +5679,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5716,10 +5716,10 @@
         <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>150</v>
@@ -5772,7 +5772,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5796,7 +5796,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5807,11 +5807,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5833,10 +5833,10 @@
         <v>133</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>150</v>
@@ -5891,7 +5891,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5949,13 +5949,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6006,7 +6006,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6015,7 +6015,7 @@
         <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>100</v>
@@ -6027,10 +6027,10 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6064,13 +6064,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6121,7 +6121,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6130,7 +6130,7 @@
         <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
@@ -6142,10 +6142,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6182,16 +6182,16 @@
         <v>194</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -6219,10 +6219,10 @@
         <v>112</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
@@ -6240,7 +6240,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6258,13 +6258,13 @@
         <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6301,16 +6301,16 @@
         <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6335,13 +6335,13 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6359,7 +6359,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6377,13 +6377,13 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6417,17 +6417,17 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6476,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6500,7 +6500,7 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6537,10 +6537,10 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6591,7 +6591,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6612,10 +6612,10 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6649,16 +6649,16 @@
         <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6708,7 +6708,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6729,10 +6729,10 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6766,16 +6766,16 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6825,7 +6825,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6846,10 +6846,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6883,19 +6883,19 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6944,7 +6944,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6965,10 +6965,10 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7005,10 +7005,10 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7059,7 +7059,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7083,7 +7083,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7120,10 +7120,10 @@
         <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>150</v>
@@ -7176,7 +7176,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7200,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7211,11 +7211,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7237,10 +7237,10 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>150</v>
@@ -7295,7 +7295,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7356,13 +7356,13 @@
         <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>208</v>
@@ -7390,13 +7390,13 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
@@ -7414,7 +7414,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -7432,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>213</v>
@@ -7449,7 +7449,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7472,16 +7472,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>275</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>277</v>
@@ -7533,7 +7533,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7551,7 +7551,7 @@
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>280</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7594,13 +7594,13 @@
         <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>287</v>
@@ -7652,7 +7652,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7750,28 +7750,28 @@
         <v>288</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7789,19 +7789,19 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7838,10 +7838,10 @@
         <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7911,10 +7911,10 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -1757,39 +1757,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="13.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.96875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -265,10 +265,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -288,861 +284,865 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>age-at-onset</t>
+  </si>
+  <si>
+    <t>age_at_onset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/age-at-onset}
+</t>
+  </si>
+  <si>
+    <t>Age range during which the anomaly occurred</t>
+  </si>
+  <si>
+    <t>Period of life during which the clinical sign was noted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Observations categories</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>Observations codes</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/observation-code</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the observation is about</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>What the observation is about, when it is not about the subject of record</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiminginstant</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date/Time this version was made available</t>
+  </si>
+  <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Who is responsible for the observation</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+booleanstring</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Observed body part</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>How it was done</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Specimen used for this observation</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
+</t>
+  </si>
+  <si>
+    <t>(Measurement) Device</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>&lt; 49062001 |Device|</t>
+  </si>
+  <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
+    <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>age-at-onset</t>
-  </si>
-  <si>
-    <t>age_at_onset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/age-at-onset}
-</t>
-  </si>
-  <si>
-    <t>Age range during which the anomaly occurred</t>
-  </si>
-  <si>
-    <t>Period of life during which the clinical sign was noted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Observations categories</t>
-  </si>
-  <si>
-    <t>http://fhir.cqgc.ferlab.bio/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>Observations codes</t>
-  </si>
-  <si>
-    <t>http://fhir.cqgc.ferlab.bio/ValueSet/observation-code</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
-  </si>
-  <si>
-    <t>Observations have no value if you don't know who or what they're about.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Observation.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
-  </si>
-  <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>Observation.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
-  </si>
-  <si>
-    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Observation.effective[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurrence
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiminginstant</t>
-  </si>
-  <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
-  </si>
-  <si>
-    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Observation.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Observation.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
-    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
-  </si>
-  <si>
-    <t>participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-booleanstring</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
-  </si>
-  <si>
-    <t>&lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
-  </si>
-  <si>
-    <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>value.nullFlavor</t>
-  </si>
-  <si>
-    <t>Observation.interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal Flag
-</t>
-  </si>
-  <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
-    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
-  </si>
-  <si>
-    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>Codes identifying interpretations of observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t>&lt; 260245000 |Findings values|</t>
-  </si>
-  <si>
-    <t>OBX-8</t>
-  </si>
-  <si>
-    <t>interpretationCode</t>
-  </si>
-  <si>
-    <t>363713009 |Has interpretation|</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments about the observation</t>
-  </si>
-  <si>
-    <t>Comments about the observation or the results.</t>
-  </si>
-  <si>
-    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
-  </si>
-  <si>
-    <t>Need to be able to provide free text additional information.</t>
-  </si>
-  <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
-  </si>
-  <si>
-    <t>subjectOf.observationEvent[code="annotation"].value</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.method</t>
-  </si>
-  <si>
-    <t>How it was done</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
-    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
-  </si>
-  <si>
-    <t>&lt; 123038009 |Specimen|</t>
-  </si>
-  <si>
-    <t>SPM segment</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SPC].specimen</t>
-  </si>
-  <si>
-    <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Observation.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
-</t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
-  </si>
-  <si>
-    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
-  </si>
-  <si>
-    <t>&lt; 49062001 |Device|</t>
-  </si>
-  <si>
-    <t>OBX-17 / PRT -10</t>
-  </si>
-  <si>
-    <t>participation[typeCode=DEV]</t>
-  </si>
-  <si>
-    <t>424226004 |Using device|</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
-    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
-  </si>
-  <si>
-    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
-  </si>
-  <si>
-    <t>OBX.7</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.referenceRange.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2020,19 +2020,19 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2054,28 +2054,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2125,13 +2125,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2171,25 +2171,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2240,19 +2240,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2286,28 +2286,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2357,19 +2357,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2403,7 +2403,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2415,16 +2415,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2450,43 +2450,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2509,18 +2509,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2532,16 +2532,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2591,31 +2591,31 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2626,11 +2626,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2649,16 +2649,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2708,7 +2708,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2732,7 +2732,7 @@
         <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2766,13 +2766,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2811,17 +2811,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2833,7 +2833,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2856,40 +2856,40 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="E10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2940,7 +2940,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2949,10 +2949,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2975,11 +2975,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2992,25 +2992,25 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3059,7 +3059,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3071,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3083,7 +3083,7 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3114,20 +3114,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3176,7 +3176,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3188,22 +3188,22 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>78</v>
@@ -3211,11 +3211,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3231,20 +3231,20 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3293,7 +3293,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3305,19 +3305,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3328,11 +3328,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3348,19 +3348,19 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3410,7 +3410,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3422,19 +3422,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3453,34 +3453,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3505,58 +3505,58 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>78</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>77</v>
@@ -3587,19 +3587,19 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3624,14 +3624,14 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
@@ -3672,10 +3672,10 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>78</v>
@@ -3683,42 +3683,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -3743,66 +3743,66 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3813,31 +3813,31 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -3886,34 +3886,34 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3941,19 +3941,19 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4003,7 +4003,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4015,7 +4015,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4024,13 +4024,13 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4038,42 +4038,42 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -4122,34 +4122,34 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4157,42 +4157,42 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -4241,34 +4241,34 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4287,28 +4287,28 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4358,19 +4358,19 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4379,13 +4379,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4413,20 +4413,20 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4475,7 +4475,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4487,22 +4487,22 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4521,31 +4521,31 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4594,42 +4594,42 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AI24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4640,7 +4640,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -4652,19 +4652,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4689,55 +4689,55 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH25" t="s" s="2">
+      <c r="AI25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4748,11 +4748,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4771,19 +4771,19 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4808,14 +4808,14 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4844,30 +4844,30 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4890,19 +4890,19 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4951,7 +4951,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4963,7 +4963,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -4972,10 +4972,10 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4997,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5009,16 +5009,16 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5044,66 +5044,66 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5114,7 +5114,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5126,19 +5126,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5163,55 +5163,55 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5233,7 +5233,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5245,16 +5245,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5304,42 +5304,42 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5350,7 +5350,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5362,16 +5362,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5421,42 +5421,42 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5479,19 +5479,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5540,7 +5540,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5552,19 +5552,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5586,7 +5586,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5598,7 +5598,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>361</v>
@@ -5661,7 +5661,7 @@
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5713,7 +5713,7 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>366</v>
@@ -5722,7 +5722,7 @@
         <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5784,7 +5784,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5824,13 +5824,13 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>371</v>
@@ -5839,10 +5839,10 @@
         <v>372</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5903,7 +5903,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -5915,7 +5915,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5937,7 +5937,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6012,13 +6012,13 @@
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6052,7 +6052,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6127,13 +6127,13 @@
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6167,7 +6167,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6179,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>386</v>
@@ -6216,7 +6216,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>390</v>
@@ -6246,13 +6246,13 @@
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6264,7 +6264,7 @@
         <v>393</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6298,7 +6298,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>395</v>
@@ -6335,7 +6335,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>399</v>
@@ -6371,7 +6371,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6383,7 +6383,7 @@
         <v>393</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6405,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6482,13 +6482,13 @@
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6522,7 +6522,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6534,7 +6534,7 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>408</v>
@@ -6597,13 +6597,13 @@
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6646,7 +6646,7 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>412</v>
@@ -6720,7 +6720,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6763,7 +6763,7 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>419</v>
@@ -6837,7 +6837,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -6880,10 +6880,10 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>425</v>
@@ -6956,7 +6956,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -6990,7 +6990,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7002,7 +7002,7 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>361</v>
@@ -7065,7 +7065,7 @@
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7117,7 +7117,7 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>366</v>
@@ -7126,7 +7126,7 @@
         <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7188,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7228,13 +7228,13 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>371</v>
@@ -7243,10 +7243,10 @@
         <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7307,7 +7307,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7319,7 +7319,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7338,22 +7338,22 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>435</v>
@@ -7365,7 +7365,7 @@
         <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7390,7 +7390,7 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>438</v>
@@ -7417,16 +7417,16 @@
         <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7435,13 +7435,13 @@
         <v>440</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7460,16 +7460,16 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>442</v>
@@ -7478,13 +7478,13 @@
         <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7539,13 +7539,13 @@
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7554,16 +7554,16 @@
         <v>445</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7579,7 +7579,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7591,7 +7591,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>447</v>
@@ -7603,7 +7603,7 @@
         <v>449</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7628,13 +7628,13 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7658,25 +7658,25 @@
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7710,19 +7710,19 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7747,13 +7747,13 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
@@ -7783,25 +7783,25 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7838,10 +7838,10 @@
         <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7902,7 +7902,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -7911,10 +7911,10 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -256,6 +259,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Measurements and simple assertions</t>
   </si>
   <si>
@@ -446,6 +453,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.extension:age-at-onset</t>
   </si>
   <si>
     <t>age-at-onset</t>
@@ -1747,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1757,46 +1767,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="13.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="13.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.96875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.96875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1923,19 +1933,22 @@
       <c r="AO1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>76</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
@@ -1943,75 +1956,75 @@
         <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -2020,622 +2033,640 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
@@ -2643,75 +2674,75 @@
         <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2720,39 +2751,42 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
@@ -2760,71 +2794,71 @@
         <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2833,158 +2867,164 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AK9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="AI10" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2992,77 +3032,77 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3071,39 +3111,42 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3111,75 +3154,75 @@
         <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3188,39 +3231,42 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3228,75 +3274,75 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3305,39 +3351,42 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3345,75 +3394,75 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3422,236 +3471,242 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3660,277 +3715,286 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>218</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3938,75 +4002,75 @@
         <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4015,394 +4079,406 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4410,75 +4486,75 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4487,277 +4563,286 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>284</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4765,77 +4850,77 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4844,39 +4929,42 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>306</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4884,77 +4972,77 @@
         <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4963,509 +5051,524 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>325</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>343</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>352</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5473,77 +5576,77 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5552,154 +5655,160 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5707,75 +5816,75 @@
         <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5784,39 +5893,42 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5824,77 +5936,77 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5903,388 +6015,400 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>378</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>381</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="K37" t="s" s="2">
+      <c r="AJ37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6292,77 +6416,77 @@
         <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>395</v>
+        <v>196</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6371,271 +6495,280 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6643,75 +6776,75 @@
         <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6720,39 +6853,42 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6760,75 +6896,75 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>419</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6837,39 +6973,42 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6877,77 +7016,77 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6956,154 +7095,160 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7111,75 +7256,75 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7188,39 +7333,42 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7228,77 +7376,77 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7307,396 +7455,408 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>196</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>212</v>
+        <v>443</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>442</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>274</v>
+        <v>446</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>279</v>
+        <v>448</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>284</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>196</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7704,77 +7864,77 @@
         <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7783,39 +7943,42 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>306</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7823,77 +7986,77 @@
         <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>456</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7902,29 +8065,32 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AP52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -118,132 +118,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1569,10 +1443,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1757,7 +1631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1771,10 +1645,10 @@
     <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="13.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1782,6315 +1656,6187 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.96875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="30.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>75</v>
+      <c r="AO1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>218</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>284</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>306</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>325</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>352</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>359</v>
+        <v>37</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>367</v>
+        <v>90</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>373</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>378</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>263</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>196</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>422</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>433</v>
+        <v>325</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>90</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>373</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>152</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>439</v>
+        <v>235</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>441</v>
+        <v>37</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>445</v>
+        <v>154</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>277</v>
+        <v>409</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>284</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>414</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP52">
+  <autoFilter ref="A1:AP51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8100,7 +7846,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1782,19 +1786,19 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>37</v>
@@ -1805,10 +1809,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1819,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1828,19 +1832,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1890,13 +1894,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1925,10 +1929,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1939,7 +1943,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -1948,16 +1952,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2008,19 +2012,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2043,10 +2047,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2057,28 +2061,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2128,19 +2132,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2163,10 +2167,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2177,7 +2181,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2189,16 +2193,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2224,13 +2228,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2248,19 +2252,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2283,21 +2287,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2309,16 +2313,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2368,19 +2372,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2392,7 +2396,7 @@
         <v>37</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>37</v>
@@ -2403,14 +2407,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2429,16 +2433,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2488,7 +2492,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2512,7 +2516,7 @@
         <v>37</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>37</v>
@@ -2523,10 +2527,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2549,13 +2553,13 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2594,17 +2598,17 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2616,7 +2620,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2639,28 +2643,28 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
@@ -2669,13 +2673,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2726,7 +2730,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2735,10 +2739,10 @@
         <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2761,14 +2765,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2781,25 +2785,25 @@
         <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -2848,7 +2852,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2860,7 +2864,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2872,7 +2876,7 @@
         <v>37</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>37</v>
@@ -2883,10 +2887,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2906,20 +2910,20 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>37</v>
@@ -2968,7 +2972,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -2980,22 +2984,22 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>37</v>
@@ -3003,14 +3007,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3026,20 +3030,20 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>37</v>
@@ -3088,7 +3092,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
@@ -3100,19 +3104,19 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>37</v>
@@ -3123,14 +3127,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3146,19 +3150,19 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3208,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3220,19 +3224,19 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>37</v>
@@ -3243,10 +3247,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3254,34 +3258,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3306,13 +3310,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3330,34 +3334,34 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>37</v>
@@ -3365,10 +3369,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3376,7 +3380,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -3391,19 +3395,19 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3428,13 +3432,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3452,7 +3456,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3464,7 +3468,7 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
@@ -3476,10 +3480,10 @@
         <v>37</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>37</v>
@@ -3487,21 +3491,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -3510,22 +3514,22 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
@@ -3550,13 +3554,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -3574,45 +3578,45 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3623,7 +3627,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -3632,22 +3636,22 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3696,34 +3700,34 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>37</v>
@@ -3731,10 +3735,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3754,19 +3758,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3816,7 +3820,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -3828,7 +3832,7 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -3837,13 +3841,13 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>37</v>
@@ -3851,21 +3855,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3874,22 +3878,22 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -3938,34 +3942,34 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>37</v>
@@ -3973,21 +3977,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -3996,22 +4000,22 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4060,34 +4064,34 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>37</v>
@@ -4095,10 +4099,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4109,7 +4113,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -4118,19 +4122,19 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4180,19 +4184,19 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
@@ -4201,13 +4205,13 @@
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>37</v>
@@ -4215,10 +4219,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4238,20 +4242,20 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -4300,7 +4304,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4312,22 +4316,22 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>37</v>
@@ -4335,10 +4339,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4349,7 +4353,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
@@ -4358,22 +4362,22 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4422,45 +4426,45 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4471,7 +4475,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4483,19 +4487,19 @@
         <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -4520,13 +4524,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4544,19 +4548,19 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
@@ -4565,10 +4569,10 @@
         <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>37</v>
@@ -4579,14 +4583,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4605,19 +4609,19 @@
         <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4642,13 +4646,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4666,7 +4670,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4678,33 +4682,33 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4727,19 +4731,19 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4788,7 +4792,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4800,7 +4804,7 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
@@ -4809,10 +4813,10 @@
         <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -4823,10 +4827,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4837,7 +4841,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4849,16 +4853,16 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4884,13 +4888,13 @@
         <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>37</v>
@@ -4908,45 +4912,45 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4957,7 +4961,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -4969,19 +4973,19 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5006,13 +5010,13 @@
         <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>37</v>
@@ -5030,19 +5034,19 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
@@ -5051,10 +5055,10 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>37</v>
@@ -5065,10 +5069,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5079,7 +5083,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -5091,16 +5095,16 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5150,45 +5154,45 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5199,7 +5203,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5211,16 +5215,16 @@
         <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5270,45 +5274,45 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5331,19 +5335,19 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5392,7 +5396,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5404,7 +5408,7 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
@@ -5413,10 +5417,10 @@
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>37</v>
@@ -5427,10 +5431,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5441,7 +5445,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5453,13 +5457,13 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5510,13 +5514,13 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
@@ -5534,7 +5538,7 @@
         <v>37</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>37</v>
@@ -5545,14 +5549,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5571,16 +5575,16 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5630,7 +5634,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5642,7 +5646,7 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
@@ -5654,7 +5658,7 @@
         <v>37</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>37</v>
@@ -5665,14 +5669,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5685,25 +5689,25 @@
         <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -5752,7 +5756,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5764,7 +5768,7 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
@@ -5776,7 +5780,7 @@
         <v>37</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5787,10 +5791,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5801,7 +5805,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5813,13 +5817,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5870,19 +5874,19 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -5891,10 +5895,10 @@
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5905,10 +5909,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5919,7 +5923,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5931,13 +5935,13 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5988,19 +5992,19 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
@@ -6009,10 +6013,10 @@
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6023,10 +6027,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6037,7 +6041,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -6049,19 +6053,19 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -6086,13 +6090,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -6110,31 +6114,31 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>37</v>
@@ -6145,10 +6149,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6171,19 +6175,19 @@
         <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6208,13 +6212,13 @@
         <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>37</v>
@@ -6232,7 +6236,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6244,19 +6248,19 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -6267,10 +6271,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6281,7 +6285,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6293,17 +6297,17 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -6352,19 +6356,19 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
@@ -6376,7 +6380,7 @@
         <v>37</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6387,10 +6391,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6401,7 +6405,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6413,13 +6417,13 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6470,19 +6474,19 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
@@ -6491,10 +6495,10 @@
         <v>37</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6505,10 +6509,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6528,19 +6532,19 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6590,7 +6594,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6602,7 +6606,7 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
@@ -6611,10 +6615,10 @@
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>37</v>
@@ -6625,10 +6629,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6648,19 +6652,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6710,7 +6714,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6722,7 +6726,7 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
@@ -6731,10 +6735,10 @@
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>37</v>
@@ -6745,10 +6749,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6768,22 +6772,22 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>37</v>
@@ -6832,7 +6836,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6844,7 +6848,7 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
@@ -6853,10 +6857,10 @@
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>37</v>
@@ -6867,10 +6871,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6881,7 +6885,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6893,13 +6897,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6950,13 +6954,13 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
@@ -6974,7 +6978,7 @@
         <v>37</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>37</v>
@@ -6985,14 +6989,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7011,16 +7015,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7070,7 +7074,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7082,7 +7086,7 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7094,7 +7098,7 @@
         <v>37</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>37</v>
@@ -7105,14 +7109,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7125,25 +7129,25 @@
         <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7192,7 +7196,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7204,7 +7208,7 @@
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7216,7 +7220,7 @@
         <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>37</v>
@@ -7227,10 +7231,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7238,10 +7242,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7250,22 +7254,22 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7290,13 +7294,13 @@
         <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>37</v>
@@ -7314,34 +7318,34 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
@@ -7349,10 +7353,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7363,7 +7367,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7372,22 +7376,22 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7436,45 +7440,45 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7485,7 +7489,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7497,19 +7501,19 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7534,13 +7538,13 @@
         <v>37</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>37</v>
@@ -7558,19 +7562,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7579,10 +7583,10 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>37</v>
@@ -7593,14 +7597,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7619,19 +7623,19 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7656,13 +7660,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -7680,7 +7684,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -7692,33 +7696,33 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7744,16 +7748,16 @@
         <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7802,7 +7806,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -7814,7 +7818,7 @@
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -7823,10 +7827,10 @@
         <v>37</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1635,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1649,10 +1775,10 @@
     <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="13.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1660,6187 +1786,6315 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.96875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="30.0703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>37</v>
+      <c r="N1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>37</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>37</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>37</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>333</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>37</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>155</v>
+        <v>379</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O39" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>313</v>
+        <v>423</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>37</v>
+        <v>433</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>399</v>
+        <v>153</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>404</v>
+        <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>236</v>
+        <v>440</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>155</v>
+        <v>446</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>278</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>37</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>256</v>
+        <v>451</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP51">
+  <autoFilter ref="A1:AP52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7850,7 +8104,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -1333,7 +1333,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/ig/StructureDefinition-cqgc-observation.xlsx
+++ b/ig/StructureDefinition-cqgc-observation.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>
